--- a/release checklist.xlsx
+++ b/release checklist.xlsx
@@ -108,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,12 +118,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,12 +143,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,7 +445,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -580,7 +573,7 @@
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
@@ -590,6 +583,7 @@
       <c r="B16" t="s">
         <v>8</v>
       </c>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
@@ -599,6 +593,7 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
@@ -618,6 +613,7 @@
       <c r="B19" t="s">
         <v>11</v>
       </c>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
@@ -636,6 +632,7 @@
       <c r="B21" t="s">
         <v>13</v>
       </c>
+      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
